--- a/Asistencia/Asistencia_Algoritmos.xlsx
+++ b/Asistencia/Asistencia_Algoritmos.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vida\Universidad\Tercer semestre\Algoritmos\Portfolio - GitHub\Algoritmos\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F25EA9-6D51-4290-AF7B-1477A5AEF30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54809B7F-DBDE-43E8-9FC5-C0C2FEA5B659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -158,13 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +179,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,7 +519,7 @@
   <dimension ref="C2:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -541,10 +552,10 @@
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1">
@@ -556,224 +567,237 @@
       <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
+        <f>H4/G4</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>7</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>9</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>10</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>11</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>12</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <v>13</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>14</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="2">
+      <c r="C32" s="6">
         <v>15</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="4">
+      <c r="C34" s="7">
         <v>16</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="4"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <v>17</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="4">
+      <c r="C38" s="7">
         <v>18</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="4"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="2">
+      <c r="C40" s="6">
         <v>19</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="4">
+      <c r="C42" s="7">
         <v>20</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="4"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C28:C29"/>
@@ -782,18 +806,6 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Asistencia/Asistencia_Algoritmos.xlsx
+++ b/Asistencia/Asistencia_Algoritmos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vida\Universidad\Tercer semestre\Algoritmos\Portfolio - GitHub\Algoritmos\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54809B7F-DBDE-43E8-9FC5-C0C2FEA5B659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5382252-2396-4803-B2AD-056FC00A49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Semana</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Asistencias</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>M23</t>
   </si>
 </sst>
 </file>
@@ -518,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -559,17 +565,17 @@
         <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="5">
         <f>H4/G4</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
@@ -638,11 +644,15 @@
       <c r="C14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C16" s="6">

--- a/Asistencia/Asistencia_Algoritmos.xlsx
+++ b/Asistencia/Asistencia_Algoritmos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vida\Universidad\Tercer semestre\Algoritmos\Portfolio - GitHub\Algoritmos\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5382252-2396-4803-B2AD-056FC00A49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29465AD0-3190-4B92-9133-D0354A5C4D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Semana</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>M23</t>
+  </si>
+  <si>
+    <t>L28</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>M14</t>
   </si>
 </sst>
 </file>
@@ -187,10 +205,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -558,34 +576,34 @@
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="5">
         <f>H4/G4</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -593,13 +611,13 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -607,13 +625,13 @@
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -621,13 +639,13 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -635,13 +653,13 @@
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -649,153 +667,173 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>8</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>9</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>10</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>11</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>12</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>13</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>14</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>15</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="6"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>16</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="7"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>17</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="6"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>18</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>19</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="6"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>20</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -808,14 +846,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
